--- a/Bloom_psychomotor.xlsx
+++ b/Bloom_psychomotor.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musth\OneDrive\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\OneDrive\Desktop\Uni\ENG4702\Course_Design_For_Accreditation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D4B65F-A32B-43AA-81DC-269F886F313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49110BF2-992E-4989-B056-CA90F34A1270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="772" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bloom Psychomotor UNH" sheetId="1" r:id="rId1"/>
     <sheet name="Bloom Psychomotor Syracuse" sheetId="2" r:id="rId2"/>
+    <sheet name="Bloom Psychomotor Waterloo" sheetId="3" r:id="rId3"/>
+    <sheet name="Bloom Psychomotor Wikipedia" sheetId="4" r:id="rId4"/>
+    <sheet name="Bloom Psychomotor UIC" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="131">
   <si>
     <t>Perception</t>
   </si>
@@ -221,13 +224,211 @@
   </si>
   <si>
     <t>work</t>
+  </si>
+  <si>
+    <t>arranges</t>
+  </si>
+  <si>
+    <t>begins</t>
+  </si>
+  <si>
+    <t>demonstrates</t>
+  </si>
+  <si>
+    <t>displays</t>
+  </si>
+  <si>
+    <t>explains</t>
+  </si>
+  <si>
+    <t>moves</t>
+  </si>
+  <si>
+    <t>prepares</t>
+  </si>
+  <si>
+    <t>proceeds</t>
+  </si>
+  <si>
+    <t>reacts</t>
+  </si>
+  <si>
+    <t>responds</t>
+  </si>
+  <si>
+    <t>shows</t>
+  </si>
+  <si>
+    <t>states</t>
+  </si>
+  <si>
+    <t>assembles</t>
+  </si>
+  <si>
+    <t>attempts</t>
+  </si>
+  <si>
+    <t>builds</t>
+  </si>
+  <si>
+    <t>copies</t>
+  </si>
+  <si>
+    <t>follows</t>
+  </si>
+  <si>
+    <t>imitates</t>
+  </si>
+  <si>
+    <t>reproduces</t>
+  </si>
+  <si>
+    <t>traces</t>
+  </si>
+  <si>
+    <t>tries</t>
+  </si>
+  <si>
+    <t>constructs</t>
+  </si>
+  <si>
+    <t>dismantles</t>
+  </si>
+  <si>
+    <t>fastens</t>
+  </si>
+  <si>
+    <t>fixes</t>
+  </si>
+  <si>
+    <t>grinds</t>
+  </si>
+  <si>
+    <t>measures</t>
+  </si>
+  <si>
+    <t>mends</t>
+  </si>
+  <si>
+    <t>mixes</t>
+  </si>
+  <si>
+    <t>organizes</t>
+  </si>
+  <si>
+    <t>sketches</t>
+  </si>
+  <si>
+    <t>calibrates</t>
+  </si>
+  <si>
+    <t>heats</t>
+  </si>
+  <si>
+    <t>operates</t>
+  </si>
+  <si>
+    <t>performs</t>
+  </si>
+  <si>
+    <t>adapts</t>
+  </si>
+  <si>
+    <t>alters</t>
+  </si>
+  <si>
+    <t>changes</t>
+  </si>
+  <si>
+    <t>modifies</t>
+  </si>
+  <si>
+    <t>rearranges</t>
+  </si>
+  <si>
+    <t>reorganizes</t>
+  </si>
+  <si>
+    <t>varies</t>
+  </si>
+  <si>
+    <t>combines</t>
+  </si>
+  <si>
+    <t>composes</t>
+  </si>
+  <si>
+    <t>creates</t>
+  </si>
+  <si>
+    <t>designs</t>
+  </si>
+  <si>
+    <t>formulates</t>
+  </si>
+  <si>
+    <t>initiates</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>originates</t>
+  </si>
+  <si>
+    <t>re-designs</t>
+  </si>
+  <si>
+    <t>chooses</t>
+  </si>
+  <si>
+    <t>describes</t>
+  </si>
+  <si>
+    <t>detects</t>
+  </si>
+  <si>
+    <t>differentiates</t>
+  </si>
+  <si>
+    <t>distinguishes</t>
+  </si>
+  <si>
+    <t>identifies</t>
+  </si>
+  <si>
+    <t>isolates</t>
+  </si>
+  <si>
+    <t>relates</t>
+  </si>
+  <si>
+    <t>selects</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>manipulates</t>
+  </si>
+  <si>
+    <t>revises</t>
+  </si>
+  <si>
+    <t>adjust</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>recognize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +452,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,6 +560,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,12 +846,12 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -687,7 +897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -710,7 +920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -733,7 +943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -756,7 +966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -779,7 +989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -802,7 +1012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>40</v>
       </c>
@@ -823,7 +1033,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
@@ -842,7 +1052,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>49</v>
       </c>
@@ -861,7 +1071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -876,7 +1086,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -889,7 +1099,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -902,7 +1112,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -915,7 +1125,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -928,7 +1138,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -950,13 +1160,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107E3027-EA6D-4152-800A-61F36F191620}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1002,7 +1212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +1235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -1048,7 +1258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -1071,7 +1281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
@@ -1094,7 +1304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -1117,7 +1327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -1137,7 +1347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
@@ -1154,7 +1364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>49</v>
       </c>
@@ -1171,7 +1381,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
@@ -1188,7 +1398,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
         <v>51</v>
       </c>
@@ -1199,7 +1409,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
@@ -1210,7 +1420,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
         <v>55</v>
       </c>
@@ -1221,7 +1431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>56</v>
       </c>
@@ -1232,7 +1442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
         <v>57</v>
       </c>
@@ -1243,7 +1453,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
         <v>58</v>
       </c>
@@ -1254,7 +1464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="7" t="s">
         <v>59</v>
       </c>
@@ -1265,7 +1475,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="7" t="s">
         <v>64</v>
       </c>
@@ -1274,6 +1484,870 @@
       </c>
       <c r="E19" s="7" t="s">
         <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62276866-EE95-4775-8842-496779A8F360}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF931197-9D97-42FA-9AF3-881C61F1D7BD}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E901D299-6AEC-4CAA-9BBC-D93721867C91}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
